--- a/data/trans_orig/P33_1_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Dificultad-trans_orig.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>7.131210642465634</v>
+        <v>7.131210642465635</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>6.909418012249212</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.015288983678327</v>
+        <v>7.007167012482306</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.80736261201992</v>
+        <v>6.811749003091755</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.924543389775642</v>
+        <v>6.930466881221223</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.247231019198309</v>
+        <v>7.245811308036611</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.013296009669738</v>
+        <v>7.007458725566243</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.076763458842292</v>
+        <v>7.080689476169075</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>7.235293291525913</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>7.083356695000255</v>
+        <v>7.083356695000257</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>7.152808908786064</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.159474342555945</v>
+        <v>7.158698036935897</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.021817210382866</v>
+        <v>7.013227799835794</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.102731279869221</v>
+        <v>7.108433321870612</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.301935071364539</v>
+        <v>7.304218273598565</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.153273477671902</v>
+        <v>7.149689489861307</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.203105626927857</v>
+        <v>7.20299417843376</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>7.149128419049821</v>
+        <v>7.149128419049822</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>7.080502309890091</v>
+        <v>7.080502309890092</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.114865014164929</v>
+        <v>7.114865014164927</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.072400522098208</v>
+        <v>7.073957900749818</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.023043732945887</v>
+        <v>7.02705658484925</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.066491936848391</v>
+        <v>7.069771129252043</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.219572342380105</v>
+        <v>7.2159549194361</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.140248928708353</v>
+        <v>7.144153946795128</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.158579655412435</v>
+        <v>7.16928251902222</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.000535035440179</v>
+        <v>7.000535035440176</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>6.898032858705391</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.951353794641</v>
+        <v>6.951353794640999</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.925789337059632</v>
+        <v>6.931518935423767</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.825565547933645</v>
+        <v>6.823171986939556</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.899527612445369</v>
+        <v>6.902665812409145</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.070810415214296</v>
+        <v>7.076247098408869</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.973939084484394</v>
+        <v>6.972156686457229</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.002741569221966</v>
+        <v>7.004093650549748</v>
       </c>
     </row>
     <row r="16">
@@ -783,10 +783,10 @@
         <v>7.126400150376523</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.007059782920049</v>
+        <v>7.00705978292005</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.064932100236059</v>
+        <v>7.064932100236061</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.087062146277431</v>
+        <v>7.089151248755637</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.972753499854679</v>
+        <v>6.969872709839553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.038367996161305</v>
+        <v>7.036834279055062</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.165998449272853</v>
+        <v>7.170092063296455</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.043899547448919</v>
+        <v>7.039475496508438</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.091644715373636</v>
+        <v>7.09198947812792</v>
       </c>
     </row>
     <row r="19">
